--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.4746201780132</v>
+        <v>79.61246300000001</v>
       </c>
       <c r="H2">
-        <v>60.4746201780132</v>
+        <v>238.837389</v>
       </c>
       <c r="I2">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494041</v>
       </c>
       <c r="J2">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494042</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N2">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q2">
-        <v>85.27894742356864</v>
+        <v>238.9681392017337</v>
       </c>
       <c r="R2">
-        <v>85.27894742356864</v>
+        <v>2150.713252815603</v>
       </c>
       <c r="S2">
-        <v>0.01615294603480863</v>
+        <v>0.03478464662489469</v>
       </c>
       <c r="T2">
-        <v>0.01615294603480863</v>
+        <v>0.0347846466248947</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.4746201780132</v>
+        <v>79.61246300000001</v>
       </c>
       <c r="H3">
-        <v>60.4746201780132</v>
+        <v>238.837389</v>
       </c>
       <c r="I3">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494041</v>
       </c>
       <c r="J3">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494042</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N3">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q3">
-        <v>665.5741632194607</v>
+        <v>880.0585901790785</v>
       </c>
       <c r="R3">
-        <v>665.5741632194607</v>
+        <v>7920.527311611706</v>
       </c>
       <c r="S3">
-        <v>0.126068436178606</v>
+        <v>0.1281029645660821</v>
       </c>
       <c r="T3">
-        <v>0.126068436178606</v>
+        <v>0.1281029645660821</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.4746201780132</v>
+        <v>79.61246300000001</v>
       </c>
       <c r="H4">
-        <v>60.4746201780132</v>
+        <v>238.837389</v>
       </c>
       <c r="I4">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494041</v>
       </c>
       <c r="J4">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494042</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N4">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q4">
-        <v>955.2081920713665</v>
+        <v>1313.132635319829</v>
       </c>
       <c r="R4">
-        <v>955.2081920713665</v>
+        <v>11818.19371787846</v>
       </c>
       <c r="S4">
-        <v>0.1809289026739517</v>
+        <v>0.1911420277355768</v>
       </c>
       <c r="T4">
-        <v>0.1809289026739517</v>
+        <v>0.1911420277355769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.4746201780132</v>
+        <v>79.61246300000001</v>
       </c>
       <c r="H5">
-        <v>60.4746201780132</v>
+        <v>238.837389</v>
       </c>
       <c r="I5">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494041</v>
       </c>
       <c r="J5">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494042</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N5">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q5">
-        <v>1627.159944514116</v>
+        <v>2190.23075644979</v>
       </c>
       <c r="R5">
-        <v>1627.159944514116</v>
+        <v>19712.07680804811</v>
       </c>
       <c r="S5">
-        <v>0.308205337516569</v>
+        <v>0.3188140609228504</v>
       </c>
       <c r="T5">
-        <v>0.308205337516569</v>
+        <v>0.3188140609228505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.53798082127388</v>
+        <v>3.815058666666667</v>
       </c>
       <c r="H6">
-        <v>3.53798082127388</v>
+        <v>11.445176</v>
       </c>
       <c r="I6">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608301</v>
       </c>
       <c r="J6">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608302</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N6">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O6">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P6">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q6">
-        <v>4.989122371581331</v>
+        <v>11.45144159801689</v>
       </c>
       <c r="R6">
-        <v>4.989122371581331</v>
+        <v>103.062974382152</v>
       </c>
       <c r="S6">
-        <v>0.0009450049146237139</v>
+        <v>0.001666893129198149</v>
       </c>
       <c r="T6">
-        <v>0.0009450049146237139</v>
+        <v>0.00166689312919815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.53798082127388</v>
+        <v>3.815058666666667</v>
       </c>
       <c r="H7">
-        <v>3.53798082127388</v>
+        <v>11.445176</v>
       </c>
       <c r="I7">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608301</v>
       </c>
       <c r="J7">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608302</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N7">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P7">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q7">
-        <v>38.93846075716231</v>
+        <v>42.17273307619112</v>
       </c>
       <c r="R7">
-        <v>38.93846075716231</v>
+        <v>379.5545976857201</v>
       </c>
       <c r="S7">
-        <v>0.007375452843770993</v>
+        <v>0.006138741432902588</v>
       </c>
       <c r="T7">
-        <v>0.007375452843770993</v>
+        <v>0.006138741432902591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.53798082127388</v>
+        <v>3.815058666666667</v>
       </c>
       <c r="H8">
-        <v>3.53798082127388</v>
+        <v>11.445176</v>
       </c>
       <c r="I8">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608301</v>
       </c>
       <c r="J8">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608302</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N8">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O8">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P8">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q8">
-        <v>55.88308374528464</v>
+        <v>62.92580146477511</v>
       </c>
       <c r="R8">
-        <v>55.88308374528464</v>
+        <v>566.3322131829759</v>
       </c>
       <c r="S8">
-        <v>0.01058498566490046</v>
+        <v>0.009159596651052647</v>
       </c>
       <c r="T8">
-        <v>0.01058498566490046</v>
+        <v>0.00915959665105265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.53798082127388</v>
+        <v>3.815058666666667</v>
       </c>
       <c r="H9">
-        <v>3.53798082127388</v>
+        <v>11.445176</v>
       </c>
       <c r="I9">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608301</v>
       </c>
       <c r="J9">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608302</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N9">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O9">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P9">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q9">
-        <v>95.19465620271957</v>
+        <v>104.9566677693876</v>
       </c>
       <c r="R9">
-        <v>95.19465620271957</v>
+        <v>944.6100099244879</v>
       </c>
       <c r="S9">
-        <v>0.0180311107360094</v>
+        <v>0.01527768769292963</v>
       </c>
       <c r="T9">
-        <v>0.0180311107360094</v>
+        <v>0.01527768769292963</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.4149752606439</v>
+        <v>30.45313966666667</v>
       </c>
       <c r="H10">
-        <v>27.4149752606439</v>
+        <v>91.359419</v>
       </c>
       <c r="I10">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="J10">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N10">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O10">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P10">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q10">
-        <v>38.65952736848913</v>
+        <v>91.40943320637923</v>
       </c>
       <c r="R10">
-        <v>38.65952736848913</v>
+        <v>822.684898857413</v>
       </c>
       <c r="S10">
-        <v>0.007322619218231906</v>
+        <v>0.01330572704330933</v>
       </c>
       <c r="T10">
-        <v>0.007322619218231906</v>
+        <v>0.01330572704330933</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.4149752606439</v>
+        <v>30.45313966666667</v>
       </c>
       <c r="H11">
-        <v>27.4149752606439</v>
+        <v>91.359419</v>
       </c>
       <c r="I11">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="J11">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N11">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O11">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P11">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q11">
-        <v>301.7249081527798</v>
+        <v>336.6375835096728</v>
       </c>
       <c r="R11">
-        <v>301.7249081527798</v>
+        <v>3029.738251587055</v>
       </c>
       <c r="S11">
-        <v>0.05715063689215376</v>
+        <v>0.04900159252257964</v>
       </c>
       <c r="T11">
-        <v>0.05715063689215376</v>
+        <v>0.04900159252257966</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.4149752606439</v>
+        <v>30.45313966666667</v>
       </c>
       <c r="H12">
-        <v>27.4149752606439</v>
+        <v>91.359419</v>
       </c>
       <c r="I12">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="J12">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N12">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O12">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P12">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q12">
-        <v>433.0247776226915</v>
+        <v>502.2958722461937</v>
       </c>
       <c r="R12">
-        <v>433.0247776226915</v>
+        <v>4520.662850215744</v>
       </c>
       <c r="S12">
-        <v>0.08202054640675865</v>
+        <v>0.07311512101819279</v>
       </c>
       <c r="T12">
-        <v>0.08202054640675865</v>
+        <v>0.07311512101819281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.4149752606439</v>
+        <v>30.45313966666667</v>
       </c>
       <c r="H13">
-        <v>27.4149752606439</v>
+        <v>91.359419</v>
       </c>
       <c r="I13">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="J13">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N13">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O13">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P13">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q13">
-        <v>737.6408399532794</v>
+        <v>837.801025304222</v>
       </c>
       <c r="R13">
-        <v>737.6408399532794</v>
+        <v>7540.209227737997</v>
       </c>
       <c r="S13">
-        <v>0.1397188056467879</v>
+        <v>0.1219518748588489</v>
       </c>
       <c r="T13">
-        <v>0.1397188056467879</v>
+        <v>0.121951874858849</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.35777518392155</v>
+        <v>4.441711333333334</v>
       </c>
       <c r="H14">
-        <v>4.35777518392155</v>
+        <v>13.325134</v>
       </c>
       <c r="I14">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158222</v>
       </c>
       <c r="J14">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158223</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N14">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O14">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P14">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q14">
-        <v>6.145164363156936</v>
+        <v>13.33242877057978</v>
       </c>
       <c r="R14">
-        <v>6.145164363156936</v>
+        <v>119.991858935218</v>
       </c>
       <c r="S14">
-        <v>0.001163974360988299</v>
+        <v>0.001940693119113647</v>
       </c>
       <c r="T14">
-        <v>0.001163974360988299</v>
+        <v>0.001940693119113648</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.35777518392155</v>
+        <v>4.441711333333334</v>
       </c>
       <c r="H15">
-        <v>4.35777518392155</v>
+        <v>13.325134</v>
       </c>
       <c r="I15">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158222</v>
       </c>
       <c r="J15">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158223</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N15">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O15">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P15">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q15">
-        <v>47.96098864282948</v>
+        <v>49.09992816069224</v>
       </c>
       <c r="R15">
-        <v>47.96098864282948</v>
+        <v>441.8993534462301</v>
       </c>
       <c r="S15">
-        <v>0.009084437422472056</v>
+        <v>0.007147076828244408</v>
       </c>
       <c r="T15">
-        <v>0.009084437422472056</v>
+        <v>0.00714707682824441</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.35777518392155</v>
+        <v>4.441711333333334</v>
       </c>
       <c r="H16">
-        <v>4.35777518392155</v>
+        <v>13.325134</v>
       </c>
       <c r="I16">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158222</v>
       </c>
       <c r="J16">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158223</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N16">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O16">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P16">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q16">
-        <v>68.83189249695468</v>
+        <v>73.26184731239822</v>
       </c>
       <c r="R16">
-        <v>68.83189249695468</v>
+        <v>659.3566258115841</v>
       </c>
       <c r="S16">
-        <v>0.01303765910072405</v>
+        <v>0.01066413070111179</v>
       </c>
       <c r="T16">
-        <v>0.01303765910072405</v>
+        <v>0.01066413070111179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.35777518392155</v>
+        <v>4.441711333333334</v>
       </c>
       <c r="H17">
-        <v>4.35777518392155</v>
+        <v>13.325134</v>
       </c>
       <c r="I17">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158222</v>
       </c>
       <c r="J17">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158223</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N17">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O17">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P17">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q17">
-        <v>117.2524474829656</v>
+        <v>122.1966059954491</v>
       </c>
       <c r="R17">
-        <v>117.2524474829656</v>
+        <v>1099.769453959042</v>
       </c>
       <c r="S17">
-        <v>0.02220914438864352</v>
+        <v>0.01778716515311238</v>
       </c>
       <c r="T17">
-        <v>0.02220914438864352</v>
+        <v>0.01778716515311238</v>
       </c>
     </row>
   </sheetData>
